--- a/mobile_banking/merchant_group/merchant_group.xlsx
+++ b/mobile_banking/merchant_group/merchant_group.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,494 +440,376 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_ab_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_emitted_at</t>
+          <t>code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>icon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>icon</t>
+          <t>group_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>offer_text</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>group_name</t>
+          <t>sort_order</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>offer_text</t>
+          <t>description</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>sort_order</t>
+          <t>unicode_name</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>display_position</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>unicode_name</t>
+          <t>unicode_description</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>display_position</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>unicode_description</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_additional_properties</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>source_file_path</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4f1626ef-285a-4abe-a690-30de20eb5be4</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45510.30590101852</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MPAY</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>merchant-group/bill-payment.png</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MPAY</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>merchant-group/bill-payment.png</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>Credit Card</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bill Payment to registered merchants</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Bill Payment to registered merchants</t>
+          <t>mainmenu,payment</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>mainmenu,payment</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/mysql/mobile_banking/BANKXP/MERCHANT_GROUP/2024_08_06_1722928829788_0.parquet</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>45511.29543957064</v>
+      <c r="L2" s="2" t="n">
+        <v>45511.29543957176</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>97e0b688-702e-4336-92d4-9f341363fc8a</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45510.30590101852</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TOPUP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>other-payments.png</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TOPUP</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>other-payments.png</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>Topup</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>4</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Topup payment</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Topup payment</t>
+          <t>payment</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>payment</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/mysql/mobile_banking/BANKXP/MERCHANT_GROUP/2024_08_06_1722928829788_0.parquet</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>45511.29543957064</v>
+      <c r="L3" s="2" t="n">
+        <v>45511.29543957176</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>926b42fc-ffb1-4ad4-85db-6dde216b3b40</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45510.30590101852</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>card.png</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>card.png</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>Recharge Card</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>5</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Recharge various recharge vouchers</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Recharge various recharge vouchers</t>
+          <t>payment</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>payment</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/mysql/mobile_banking/BANKXP/MERCHANT_GROUP/2024_08_06_1722928829788_0.parquet</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>45511.29543957064</v>
+      <c r="L4" s="2" t="n">
+        <v>45511.29543957176</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ecd8566c-50a1-40c8-92d0-1a0881f494e6</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45510.30590101852</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>wallet-topup.png</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WAL</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>wallet-topup.png</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>Load Wallet</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Load Wallet</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Load Wallet</t>
+          <t>payment</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>payment</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/mysql/mobile_banking/BANKXP/MERCHANT_GROUP/2024_08_06_1722928829788_0.parquet</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>45511.29543957064</v>
+      <c r="L5" s="2" t="n">
+        <v>45511.29543957176</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>c58bf908-3c03-4e93-be6b-b214f319daa9</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45510.30590101852</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DATA_PACKAGE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>data-pack.png</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DATA_PACKAGE</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>data-pack.png</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>Data Package</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>6</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Data Package</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Data Package</t>
+          <t>payment</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>payment</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/mysql/mobile_banking/BANKXP/MERCHANT_GROUP/2024_08_06_1722928829788_0.parquet</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>45511.29543957064</v>
+      <c r="L6" s="2" t="n">
+        <v>45511.29543957176</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>62a16792-f097-4379-94c4-2521aadd724f</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45510.30590101852</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CLW_CUSTOM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>card.png</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CLW_CUSTOM</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>card.png</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>Cardless Withdraw</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>7</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardless Withdraw
 </t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>payment</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>payment</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/mysql/mobile_banking/BANKXP/MERCHANT_GROUP/2024_08_06_1722928829788_0.parquet</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>45511.29543957064</v>
+      <c r="L7" s="2" t="n">
+        <v>45511.29543957176</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>aee770f3-ac69-42b7-b01d-55f25251979b</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45510.30590101852</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" t="n">
         <v>8</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ICASH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>iCash.png</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ICASH</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>iCash.png</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>iCash Wallet</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>6</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>iCash Wallet</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>unicode</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>iCash Wallet</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>unicode</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
           <t>payment</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/mysql/mobile_banking/BANKXP/MERCHANT_GROUP/2024_08_06_1722928829788_0.parquet</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>45511.29543957064</v>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" s="2" t="n">
+        <v>45511.29543957176</v>
       </c>
     </row>
   </sheetData>
